--- a/SchedulingData/static6/pso/scheduling1_3.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.84</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.516</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>82.09999999999999</v>
+        <v>32.08</v>
       </c>
       <c r="E3" t="n">
-        <v>26.44</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>32.08</v>
       </c>
       <c r="D4" t="n">
-        <v>59.9</v>
+        <v>137.12</v>
       </c>
       <c r="E4" t="n">
-        <v>25.2</v>
+        <v>23.068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.45999999999999</v>
+        <v>64.42</v>
       </c>
       <c r="E5" t="n">
-        <v>26.304</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="6">
@@ -542,150 +542,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41.84</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>91.23999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E6" t="n">
-        <v>23.216</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>137.12</v>
       </c>
       <c r="D7" t="n">
-        <v>59.9</v>
+        <v>200.86</v>
       </c>
       <c r="E7" t="n">
-        <v>26.2</v>
+        <v>18.804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59.9</v>
+        <v>200.86</v>
       </c>
       <c r="D8" t="n">
-        <v>99.5</v>
+        <v>266.76</v>
       </c>
       <c r="E8" t="n">
-        <v>22.88</v>
+        <v>13.344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>99.5</v>
+        <v>77.2</v>
       </c>
       <c r="D9" t="n">
-        <v>142.1</v>
+        <v>117.54</v>
       </c>
       <c r="E9" t="n">
-        <v>19.76</v>
+        <v>23.016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>87.66</v>
+        <v>59.9</v>
       </c>
       <c r="E10" t="n">
-        <v>24.904</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>87.66</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>160.46</v>
+        <v>150.62</v>
       </c>
       <c r="E11" t="n">
-        <v>21.224</v>
+        <v>21.208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>160.46</v>
+        <v>150.62</v>
       </c>
       <c r="D12" t="n">
-        <v>248.08</v>
+        <v>216.66</v>
       </c>
       <c r="E12" t="n">
-        <v>16.072</v>
+        <v>17.204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>82.09999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="D13" t="n">
-        <v>125.88</v>
+        <v>144.36</v>
       </c>
       <c r="E13" t="n">
-        <v>23.192</v>
+        <v>21.364</v>
       </c>
     </row>
     <row r="14">
@@ -694,131 +694,131 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>125.88</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>204.7</v>
+        <v>59.24</v>
       </c>
       <c r="E14" t="n">
-        <v>18.92</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>91.23999999999999</v>
+        <v>59.24</v>
       </c>
       <c r="D15" t="n">
-        <v>188.02</v>
+        <v>111.04</v>
       </c>
       <c r="E15" t="n">
-        <v>19.628</v>
+        <v>23.236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>68.45999999999999</v>
+        <v>117.54</v>
       </c>
       <c r="D16" t="n">
-        <v>128.12</v>
+        <v>214.04</v>
       </c>
       <c r="E16" t="n">
-        <v>21.468</v>
+        <v>18.456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>128.12</v>
+        <v>111.04</v>
       </c>
       <c r="D17" t="n">
-        <v>191.34</v>
+        <v>145.54</v>
       </c>
       <c r="E17" t="n">
-        <v>18.276</v>
+        <v>20.916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>188.02</v>
+        <v>145.54</v>
       </c>
       <c r="D18" t="n">
-        <v>261.36</v>
+        <v>217.38</v>
       </c>
       <c r="E18" t="n">
-        <v>15.404</v>
+        <v>17.332</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>142.1</v>
+        <v>217.38</v>
       </c>
       <c r="D19" t="n">
-        <v>215.1</v>
+        <v>296.1</v>
       </c>
       <c r="E19" t="n">
-        <v>16.04</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>191.34</v>
+        <v>296.1</v>
       </c>
       <c r="D20" t="n">
-        <v>248.78</v>
+        <v>355.1</v>
       </c>
       <c r="E20" t="n">
-        <v>15.152</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="21">
@@ -827,112 +827,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>215.1</v>
+        <v>64.42</v>
       </c>
       <c r="D21" t="n">
-        <v>288.04</v>
+        <v>131.22</v>
       </c>
       <c r="E21" t="n">
-        <v>12.816</v>
+        <v>22.168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>59.9</v>
+        <v>214.04</v>
       </c>
       <c r="D22" t="n">
-        <v>127.06</v>
+        <v>270.28</v>
       </c>
       <c r="E22" t="n">
-        <v>21.104</v>
+        <v>14.972</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>127.06</v>
+        <v>355.1</v>
       </c>
       <c r="D23" t="n">
-        <v>182</v>
+        <v>407.12</v>
       </c>
       <c r="E23" t="n">
-        <v>17.24</v>
+        <v>9.648</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>261.36</v>
+        <v>266.76</v>
       </c>
       <c r="D24" t="n">
-        <v>325.3</v>
+        <v>331.06</v>
       </c>
       <c r="E24" t="n">
-        <v>11.14</v>
+        <v>8.544</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>288.04</v>
+        <v>216.66</v>
       </c>
       <c r="D25" t="n">
-        <v>346.76</v>
+        <v>258.3</v>
       </c>
       <c r="E25" t="n">
-        <v>10.044</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>182</v>
+        <v>131.22</v>
       </c>
       <c r="D26" t="n">
-        <v>249.8</v>
+        <v>200.28</v>
       </c>
       <c r="E26" t="n">
-        <v>13.58</v>
+        <v>18.372</v>
       </c>
     </row>
     <row r="27">
@@ -941,93 +941,93 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>248.08</v>
+        <v>331.06</v>
       </c>
       <c r="D27" t="n">
-        <v>301.62</v>
+        <v>408.22</v>
       </c>
       <c r="E27" t="n">
-        <v>12.848</v>
+        <v>3.448</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>301.62</v>
+        <v>258.3</v>
       </c>
       <c r="D28" t="n">
-        <v>347.8</v>
+        <v>337.2</v>
       </c>
       <c r="E28" t="n">
-        <v>10.34</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>325.3</v>
+        <v>200.28</v>
       </c>
       <c r="D29" t="n">
-        <v>393.82</v>
+        <v>249.18</v>
       </c>
       <c r="E29" t="n">
-        <v>6.928</v>
+        <v>15.612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>204.7</v>
+        <v>270.28</v>
       </c>
       <c r="D30" t="n">
-        <v>266.6</v>
+        <v>338.1</v>
       </c>
       <c r="E30" t="n">
-        <v>14.84</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>266.6</v>
+        <v>249.18</v>
       </c>
       <c r="D31" t="n">
-        <v>335.1</v>
+        <v>298.56</v>
       </c>
       <c r="E31" t="n">
-        <v>12.08</v>
+        <v>12.804</v>
       </c>
     </row>
     <row r="32">
@@ -1036,93 +1036,93 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>393.82</v>
+        <v>338.1</v>
       </c>
       <c r="D32" t="n">
-        <v>470.86</v>
+        <v>405.38</v>
       </c>
       <c r="E32" t="n">
-        <v>3.344</v>
+        <v>8.192</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>248.78</v>
+        <v>405.38</v>
       </c>
       <c r="D33" t="n">
-        <v>312.88</v>
+        <v>467.58</v>
       </c>
       <c r="E33" t="n">
-        <v>9.872</v>
+        <v>5.072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>347.8</v>
+        <v>467.58</v>
       </c>
       <c r="D34" t="n">
-        <v>420</v>
+        <v>521.4</v>
       </c>
       <c r="E34" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>312.88</v>
+        <v>521.4</v>
       </c>
       <c r="D35" t="n">
-        <v>379.58</v>
+        <v>613.4</v>
       </c>
       <c r="E35" t="n">
-        <v>4.832</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>249.8</v>
+        <v>613.4</v>
       </c>
       <c r="D36" t="n">
-        <v>313.96</v>
+        <v>696.9</v>
       </c>
       <c r="E36" t="n">
-        <v>9.784000000000001</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="37">
@@ -1131,55 +1131,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>313.96</v>
+        <v>144.36</v>
       </c>
       <c r="D37" t="n">
-        <v>414.2</v>
+        <v>207.28</v>
       </c>
       <c r="E37" t="n">
-        <v>5.36</v>
+        <v>16.212</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>420</v>
+        <v>207.28</v>
       </c>
       <c r="D38" t="n">
-        <v>458.68</v>
+        <v>280.18</v>
       </c>
       <c r="E38" t="n">
-        <v>3.972</v>
+        <v>12.532</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>346.76</v>
+        <v>280.18</v>
       </c>
       <c r="D39" t="n">
-        <v>422.9</v>
+        <v>376.58</v>
       </c>
       <c r="E39" t="n">
-        <v>6.04</v>
+        <v>7.492</v>
       </c>
     </row>
     <row r="40">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>379.58</v>
+        <v>337.2</v>
       </c>
       <c r="D40" t="n">
-        <v>416.8</v>
+        <v>395.64</v>
       </c>
       <c r="E40" t="n">
-        <v>2.24</v>
+        <v>4.676</v>
       </c>
     </row>
     <row r="41">
@@ -1207,55 +1207,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>422.9</v>
+        <v>298.56</v>
       </c>
       <c r="D41" t="n">
-        <v>499</v>
+        <v>337.96</v>
       </c>
       <c r="E41" t="n">
-        <v>2.5</v>
+        <v>9.504</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>458.68</v>
+        <v>395.64</v>
       </c>
       <c r="D42" t="n">
-        <v>547.14</v>
+        <v>458.04</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>1.036</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>547.14</v>
+        <v>458.04</v>
       </c>
       <c r="D43" t="n">
-        <v>609.74</v>
+        <v>552.37</v>
       </c>
       <c r="E43" t="n">
-        <v>25.44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1264,166 +1264,166 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>416.8</v>
+        <v>552.37</v>
       </c>
       <c r="D44" t="n">
-        <v>498.92</v>
+        <v>621.25</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>498.92</v>
+        <v>407.12</v>
       </c>
       <c r="D45" t="n">
-        <v>564.46</v>
+        <v>460.54</v>
       </c>
       <c r="E45" t="n">
-        <v>27.096</v>
+        <v>5.436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>564.46</v>
+        <v>376.58</v>
       </c>
       <c r="D46" t="n">
-        <v>610.9</v>
+        <v>434.28</v>
       </c>
       <c r="E46" t="n">
-        <v>24.072</v>
+        <v>3.832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>335.1</v>
+        <v>408.22</v>
       </c>
       <c r="D47" t="n">
-        <v>406</v>
+        <v>483.02</v>
       </c>
       <c r="E47" t="n">
-        <v>6.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>414.2</v>
+        <v>483.02</v>
       </c>
       <c r="D48" t="n">
-        <v>467.04</v>
+        <v>553.46</v>
       </c>
       <c r="E48" t="n">
-        <v>1.216</v>
+        <v>26.136</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>467.04</v>
+        <v>337.96</v>
       </c>
       <c r="D49" t="n">
-        <v>561.01</v>
+        <v>411.04</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>6.776</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>406</v>
+        <v>411.04</v>
       </c>
       <c r="D50" t="n">
-        <v>480.1</v>
+        <v>479.38</v>
       </c>
       <c r="E50" t="n">
-        <v>4.3</v>
+        <v>3.552</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>480.1</v>
+        <v>479.38</v>
       </c>
       <c r="D51" t="n">
-        <v>573.88</v>
+        <v>527.02</v>
       </c>
       <c r="E51" t="n">
-        <v>1.492</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>573.88</v>
+        <v>527.02</v>
       </c>
       <c r="D52" t="n">
-        <v>642.9</v>
+        <v>607.86</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1431,21 +1431,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>609.74</v>
+        <v>460.54</v>
       </c>
       <c r="D53" t="n">
-        <v>648.76</v>
+        <v>538.08</v>
       </c>
       <c r="E53" t="n">
-        <v>22.668</v>
+        <v>1.292</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>538.08</v>
+      </c>
+      <c r="D54" t="n">
+        <v>631.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
